--- a/2024/shuffle-architecute/Teste10/content/results/metrics_1_9.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_1_9.xlsx
@@ -488,445 +488,445 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_24</t>
+          <t>model_1_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9768197884676594</v>
+        <v>0.9777493491399031</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7806294414049654</v>
+        <v>0.7719532790343684</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9518441240455982</v>
+        <v>0.9849846801501485</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.996274298382672</v>
+        <v>0.9913223968234005</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8113898470658623</v>
+        <v>0.9864869413652669</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09728238731622696</v>
+        <v>0.09338122606277466</v>
       </c>
       <c r="H2" t="n">
-        <v>1.466932058334351</v>
+        <v>1.524949550628662</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02754773199558258</v>
+        <v>0.2245918959379196</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2603936791419983</v>
+        <v>0.02383754029870033</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1439707428216934</v>
+        <v>0.1242147237062454</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_23</t>
+          <t>model_1_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9767490810903776</v>
+        <v>0.9778139808393373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7805789509939499</v>
+        <v>0.771708542686355</v>
       </c>
       <c r="D3" t="n">
-        <v>0.954146316995645</v>
+        <v>0.9847154747401642</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.957974405885321</v>
+        <v>0.9909772384383703</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8144327731729584</v>
+        <v>0.9862163423560903</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09757913649082184</v>
+        <v>0.09310997277498245</v>
       </c>
       <c r="H3" t="n">
-        <v>1.467269539833069</v>
+        <v>1.526586055755615</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02623075246810913</v>
+        <v>0.2286185324192047</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2570652067661285</v>
+        <v>0.02478570118546486</v>
       </c>
       <c r="K3" t="n">
-        <v>0.14164799451828</v>
+        <v>0.1267021298408508</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_22</t>
+          <t>model_1_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9766752988571796</v>
+        <v>0.9778718526194993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7805239475285095</v>
+        <v>0.7714610378752029</v>
       </c>
       <c r="D4" t="n">
-        <v>0.95636605437555</v>
+        <v>0.984445054269229</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.918537888713074</v>
+        <v>0.9906226471089182</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8175094958010201</v>
+        <v>0.9859433382644077</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09788878262042999</v>
+        <v>0.09286709874868393</v>
       </c>
       <c r="H4" t="n">
-        <v>1.467637300491333</v>
+        <v>1.528241038322449</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0249609462916851</v>
+        <v>0.2326633632183075</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2536379396915436</v>
+        <v>0.02575976774096489</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1392994523048401</v>
+        <v>0.1292116343975067</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_21</t>
+          <t>model_1_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9765984840090147</v>
+        <v>0.9779230859390794</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7804642466504405</v>
+        <v>0.7712108679057748</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9585017021729125</v>
+        <v>0.9841733998711938</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.877921447261528</v>
+        <v>0.9902586776943757</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8206218492329924</v>
+        <v>0.9856679539001274</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09821115434169769</v>
+        <v>0.0926520824432373</v>
       </c>
       <c r="H5" t="n">
-        <v>1.468036532402039</v>
+        <v>1.529913902282715</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02373923920094967</v>
+        <v>0.2367266416549683</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2501081228256226</v>
+        <v>0.02675959840416908</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1369237303733826</v>
+        <v>0.1317430138587952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_20</t>
+          <t>model_1_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9765186162178457</v>
+        <v>0.9779678917982259</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7803996515849628</v>
+        <v>0.7709581169434461</v>
       </c>
       <c r="D6" t="n">
-        <v>0.960551658936021</v>
+        <v>0.9839007074924991</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.836073974374253</v>
+        <v>0.989885589807152</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8237723235837331</v>
+        <v>0.9853903395474637</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0985463410615921</v>
+        <v>0.09246404469013214</v>
       </c>
       <c r="H6" t="n">
-        <v>1.46846866607666</v>
+        <v>1.531604170799255</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02256655693054199</v>
+        <v>0.240805447101593</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2464713454246521</v>
+        <v>0.02778447791934013</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1345188915729523</v>
+        <v>0.1342948973178864</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_19</t>
+          <t>model_1_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9764357312743245</v>
+        <v>0.9780064258793741</v>
       </c>
       <c r="C7" t="n">
-        <v>0.780329897564306</v>
+        <v>0.770702998487817</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9625143301831866</v>
+        <v>0.9836270073625686</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.792947576657285</v>
+        <v>0.9895034334965868</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8269626908800393</v>
+        <v>0.9851105507279261</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09889419376850128</v>
+        <v>0.09230232238769531</v>
       </c>
       <c r="H7" t="n">
-        <v>1.468935012817383</v>
+        <v>1.533310174942017</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02144380286335945</v>
+        <v>0.2448993027210236</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2427234202623367</v>
+        <v>0.028834268450737</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1320835947990417</v>
+        <v>0.1368667781352997</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_18</t>
+          <t>model_1_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9763498613088774</v>
+        <v>0.9780388173574175</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7802547589021132</v>
+        <v>0.7704455092935161</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9643879245423024</v>
+        <v>0.9833523645166923</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.748495965895973</v>
+        <v>0.9891124290263916</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8301952308735497</v>
+        <v>0.98482867490309</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09925457835197449</v>
+        <v>0.09216637909412384</v>
       </c>
       <c r="H8" t="n">
-        <v>1.469437479972839</v>
+        <v>1.535032033920288</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02037200704216957</v>
+        <v>0.2490072846412659</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2388603091239929</v>
+        <v>0.02990836463868618</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1296161264181137</v>
+        <v>0.1394578367471695</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_17</t>
+          <t>model_1_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9762609950991586</v>
+        <v>0.9780652104066456</v>
       </c>
       <c r="C9" t="n">
-        <v>0.780173975371961</v>
+        <v>0.7701858384444846</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9661713036102713</v>
+        <v>0.9830768866724874</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.702675443909444</v>
+        <v>0.9887125162822665</v>
       </c>
       <c r="F9" t="n">
-        <v>0.833471880099574</v>
+        <v>0.9845447938734644</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09962751716375351</v>
+        <v>0.09205561876296997</v>
       </c>
       <c r="H9" t="n">
-        <v>1.469977617263794</v>
+        <v>1.536768436431885</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01935181953012943</v>
+        <v>0.2531277537345886</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2348782420158386</v>
+        <v>0.03100693412125111</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1271149814128876</v>
+        <v>0.1420673280954361</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_16</t>
+          <t>model_1_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9761691602220206</v>
+        <v>0.9780858214685203</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7800873209444973</v>
+        <v>0.7699240901614582</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9678631510703548</v>
+        <v>0.982800673795639</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.6554359113121</v>
+        <v>0.9883040146836745</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8367948853271757</v>
+        <v>0.9842590305756905</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1000129282474518</v>
+        <v>0.09196911752223969</v>
       </c>
       <c r="H10" t="n">
-        <v>1.47055721282959</v>
+        <v>1.538518667221069</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01838399097323418</v>
+        <v>0.25725919008255</v>
       </c>
       <c r="J10" t="n">
-        <v>0.230772852897644</v>
+        <v>0.03212909772992134</v>
       </c>
       <c r="K10" t="n">
-        <v>0.124578446149826</v>
+        <v>0.1446941196918488</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_15</t>
+          <t>model_1_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9760743248303752</v>
+        <v>0.9781007630286686</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7799944995102865</v>
+        <v>0.7696603664041937</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9694621493339128</v>
+        <v>0.9825238498859358</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.606747202605705</v>
+        <v>0.9878870103019187</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8401657549282335</v>
+        <v>0.9839714784110307</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1004109382629395</v>
+        <v>0.09190641343593597</v>
       </c>
       <c r="H11" t="n">
-        <v>1.471177816390991</v>
+        <v>1.540282249450684</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01746927946805954</v>
+        <v>0.2613998055458069</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2265415191650391</v>
+        <v>0.03327461332082748</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1220053881406784</v>
+        <v>0.1473373621702194</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_14</t>
+          <t>model_1_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9759764863284957</v>
+        <v>0.9781101793254575</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7798952565014163</v>
+        <v>0.7693947887602638</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9709675464525283</v>
+        <v>0.9822464099622166</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.556560522840313</v>
+        <v>0.9874615702437983</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8435866517502859</v>
+        <v>0.9836821911564492</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1008215546607971</v>
+        <v>0.09186689555644989</v>
       </c>
       <c r="H12" t="n">
-        <v>1.471841335296631</v>
+        <v>1.542058110237122</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0166081115603447</v>
+        <v>0.2655496299266815</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2221800088882446</v>
+        <v>0.03444330766797066</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1193941235542297</v>
+        <v>0.1499965488910675</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_13</t>
+          <t>model_1_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9758756251934911</v>
+        <v>0.9781142205004254</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7797892820665553</v>
+        <v>0.7691274930992689</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9723782805407234</v>
+        <v>0.981968481822406</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.504853309331349</v>
+        <v>0.9870278142505572</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8470588423501864</v>
+        <v>0.9833912675386631</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1012448370456696</v>
+        <v>0.09184993058443069</v>
       </c>
       <c r="H13" t="n">
-        <v>1.4725501537323</v>
+        <v>1.543845534324646</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01580109633505344</v>
+        <v>0.2697067260742188</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2176863551139832</v>
+        <v>0.0356348417699337</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1167437210679054</v>
+        <v>0.1526707708835602</v>
       </c>
     </row>
     <row r="14">
@@ -936,478 +936,478 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9757716590959477</v>
+        <v>0.9781131056668698</v>
       </c>
       <c r="C14" t="n">
-        <v>0.779676311234037</v>
+        <v>0.7688585752874927</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9736933879547253</v>
+        <v>0.9816902200070395</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.451597252714939</v>
+        <v>0.9865859836269717</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8505832874038516</v>
+        <v>0.9830988638654767</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1016811579465866</v>
+        <v>0.09185460954904556</v>
       </c>
       <c r="H14" t="n">
-        <v>1.473305583000183</v>
+        <v>1.54564380645752</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01504878606647253</v>
+        <v>0.2738688290119171</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2130580842494965</v>
+        <v>0.03684855997562408</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1140534281730652</v>
+        <v>0.1553585976362228</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_11</t>
+          <t>model_1_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9756645363234807</v>
+        <v>0.9781068888051985</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7795559717666311</v>
+        <v>0.7685881851040584</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9749128322672628</v>
+        <v>0.9814116609719928</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.39677447904961</v>
+        <v>0.9861360940214065</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8541610865282352</v>
+        <v>0.9828049953755434</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1021307408809662</v>
+        <v>0.09188070148229599</v>
       </c>
       <c r="H15" t="n">
-        <v>1.474110245704651</v>
+        <v>1.547451853752136</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01435119844973087</v>
+        <v>0.2780354022979736</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2082936614751816</v>
+        <v>0.03808441758155823</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1113224104046822</v>
+        <v>0.1580599099397659</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_10</t>
+          <t>model_1_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9755541593992914</v>
+        <v>0.9780957296452677</v>
       </c>
       <c r="C16" t="n">
-        <v>0.779427995493198</v>
+        <v>0.7683163534325175</v>
       </c>
       <c r="D16" t="n">
-        <v>0.976036000523361</v>
+        <v>0.9811328378419899</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.340369940210658</v>
+        <v>0.9856782892356583</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8577927526676568</v>
+        <v>0.9825097340068322</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1025939658284187</v>
+        <v>0.09192753583192825</v>
       </c>
       <c r="H16" t="n">
-        <v>1.474966049194336</v>
+        <v>1.549269676208496</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01370868645608425</v>
+        <v>0.2822058796882629</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2033917903900146</v>
+        <v>0.03934201598167419</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1085502728819847</v>
+        <v>0.1607740074396133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_9</t>
+          <t>model_1_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9754403868902738</v>
+        <v>0.9780798504593111</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7792920490094406</v>
+        <v>0.7680432916464828</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9770627433508582</v>
+        <v>0.980854010509132</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.282386006460761</v>
+        <v>0.9852127423605587</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8614782795358064</v>
+        <v>0.9822133102467461</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1030714511871338</v>
+        <v>0.09199417382478714</v>
       </c>
       <c r="H17" t="n">
-        <v>1.47587513923645</v>
+        <v>1.551095485687256</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01312133483588696</v>
+        <v>0.2863764464855194</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1983526349067688</v>
+        <v>0.04062088206410408</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1057370156049728</v>
+        <v>0.1634987890720367</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_8</t>
+          <t>model_1_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9753230797764905</v>
+        <v>0.9780593040768383</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7791477962416977</v>
+        <v>0.7677690445394474</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9779932728012429</v>
+        <v>0.9805750480311362</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.222840339861124</v>
+        <v>0.9847395576320156</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8652166732951707</v>
+        <v>0.9819156595898406</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1035637557506561</v>
+        <v>0.09208039939403534</v>
       </c>
       <c r="H18" t="n">
-        <v>1.476839780807495</v>
+        <v>1.552929520606995</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01258902251720428</v>
+        <v>0.2905490398406982</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1931777745485306</v>
+        <v>0.04192072525620461</v>
       </c>
       <c r="K18" t="n">
-        <v>0.102883405983448</v>
+        <v>0.1662348508834839</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_7</t>
+          <t>model_1_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9752019829450376</v>
+        <v>0.9780342730474654</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7789949183753798</v>
+        <v>0.7674937748923111</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9788278930117031</v>
+        <v>0.9802962017698645</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.161758926732333</v>
+        <v>0.9842589024038333</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8690064846581567</v>
+        <v>0.9816169678468457</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1040719673037529</v>
+        <v>0.09218546003103256</v>
       </c>
       <c r="H19" t="n">
-        <v>1.477861881256104</v>
+        <v>1.554770231246948</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01211157534271479</v>
+        <v>0.2947198748588562</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1878694444894791</v>
+        <v>0.04324109852313995</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09999055415391922</v>
+        <v>0.1689804941415787</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_6</t>
+          <t>model_1_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9750768789071613</v>
+        <v>0.9780048833227951</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7788330963703423</v>
+        <v>0.7672175312138552</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9795671747100697</v>
+        <v>0.9800174277976992</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.099177248929652</v>
+        <v>0.9837709119914577</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8728460950833941</v>
+        <v>0.981317275890312</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1045970022678375</v>
+        <v>0.09230879694223404</v>
       </c>
       <c r="H20" t="n">
-        <v>1.478944063186646</v>
+        <v>1.556617498397827</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01168866641819477</v>
+        <v>0.2988896667957306</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1824307292699814</v>
+        <v>0.04458161443471909</v>
       </c>
       <c r="K20" t="n">
-        <v>0.09705967456102371</v>
+        <v>0.1717353165149689</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_5</t>
+          <t>model_1_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9749474086007807</v>
+        <v>0.9779712617386158</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7786619737231764</v>
+        <v>0.7669405105990841</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9802118796129664</v>
+        <v>0.9797390175437201</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.035159279851992</v>
+        <v>0.9832757844839035</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8767319483113499</v>
+        <v>0.9810167170695385</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1051403731107712</v>
+        <v>0.09244990348815918</v>
       </c>
       <c r="H21" t="n">
-        <v>1.480088472366333</v>
+        <v>1.558469891548157</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01131985988467932</v>
+        <v>0.3030539751052856</v>
       </c>
       <c r="J21" t="n">
-        <v>0.176867201924324</v>
+        <v>0.04594173654913902</v>
       </c>
       <c r="K21" t="n">
-        <v>0.09409351646900177</v>
+        <v>0.1744981110095978</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_4</t>
+          <t>model_1_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9748132233178723</v>
+        <v>0.9779336053988653</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7784812257934283</v>
+        <v>0.7666627721425966</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9807630161859903</v>
+        <v>0.9794608885385719</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.9697821070791797</v>
+        <v>0.9827735035150156</v>
       </c>
       <c r="F22" t="n">
-        <v>0.880660036807398</v>
+        <v>0.9807154046450332</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1057035177946091</v>
+        <v>0.09260793775320053</v>
       </c>
       <c r="H22" t="n">
-        <v>1.481297135353088</v>
+        <v>1.560327053070068</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01100458111613989</v>
+        <v>0.307214081287384</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1711855381727219</v>
+        <v>0.04732151702046394</v>
       </c>
       <c r="K22" t="n">
-        <v>0.09109510481357574</v>
+        <v>0.1772678345441818</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_3</t>
+          <t>model_1_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9746739239586208</v>
+        <v>0.9778919663481739</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7782905270028143</v>
+        <v>0.766384391087626</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9812219956297629</v>
+        <v>0.9791831594584278</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.9031435704431729</v>
+        <v>0.9822642871659981</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8846255140837862</v>
+        <v>0.980413335648931</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1062881201505661</v>
+        <v>0.09278269112110138</v>
       </c>
       <c r="H23" t="n">
-        <v>1.482572317123413</v>
+        <v>1.562188625335693</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01074202079325914</v>
+        <v>0.3113682270050049</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1653942614793777</v>
+        <v>0.0487203449010849</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0880681648850441</v>
+        <v>0.1800445169210434</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_2</t>
+          <t>model_1_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9745289343928557</v>
+        <v>0.9778465471872714</v>
       </c>
       <c r="C24" t="n">
-        <v>0.77808958987895</v>
+        <v>0.7661054991855426</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9815903643989567</v>
+        <v>0.9789059017206904</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.8353584306434123</v>
+        <v>0.9817483035256622</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8886223117399106</v>
+        <v>0.9801106941491976</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1068966090679169</v>
+        <v>0.09297329932451248</v>
       </c>
       <c r="H24" t="n">
-        <v>1.48391592502594</v>
+        <v>1.564053654670715</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01053129322826862</v>
+        <v>0.3155153393745422</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1595033407211304</v>
+        <v>0.05013776198029518</v>
       </c>
       <c r="K24" t="n">
-        <v>0.08501730859279633</v>
+        <v>0.1828264594078064</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_1</t>
+          <t>model_1_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9743777692315821</v>
+        <v>0.9777973781705673</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7778781381130042</v>
+        <v>0.7658262147345426</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9818699528621914</v>
+        <v>0.9786291847814305</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.7665720030084646</v>
+        <v>0.9812256159701498</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8926428013312732</v>
+        <v>0.9798074581223297</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1075310111045837</v>
+        <v>0.09317964315414429</v>
       </c>
       <c r="H25" t="n">
-        <v>1.485329866409302</v>
+        <v>1.565921068191528</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01037135440856218</v>
+        <v>0.3196543157100677</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1535253971815109</v>
+        <v>0.05157358944416046</v>
       </c>
       <c r="K25" t="n">
-        <v>0.08194836974143982</v>
+        <v>0.1856138557195663</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_0</t>
+          <t>model_1_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9742196786565659</v>
+        <v>0.9777446912353124</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7776558489644897</v>
+        <v>0.7655466327277407</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9820625951910732</v>
+        <v>0.978353165516103</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.6969452683181474</v>
+        <v>0.9806964714538582</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8966785868591977</v>
+        <v>0.9795038249402338</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1081944927573204</v>
+        <v>0.09340076148509979</v>
       </c>
       <c r="H26" t="n">
-        <v>1.48681628704071</v>
+        <v>1.567790746688843</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01026115287095308</v>
+        <v>0.32378289103508</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1474744379520416</v>
+        <v>0.05302716046571732</v>
       </c>
       <c r="K26" t="n">
-        <v>0.07886776328086853</v>
+        <v>0.18840491771698</v>
       </c>
     </row>
   </sheetData>
